--- a/Code/Results/Cases/Case_4_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_243/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.49280733934279</v>
+        <v>14.67398100309142</v>
       </c>
       <c r="C2">
-        <v>12.0036502026174</v>
+        <v>11.43289330989208</v>
       </c>
       <c r="D2">
-        <v>7.175851827427765</v>
+        <v>5.981349752233965</v>
       </c>
       <c r="E2">
-        <v>7.615922705593022</v>
+        <v>12.82514935640294</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.43127291187767</v>
+        <v>29.606600187338</v>
       </c>
       <c r="H2">
-        <v>8.983734166589601</v>
+        <v>14.36919225573753</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.138884697552609</v>
+        <v>9.844020614152583</v>
       </c>
       <c r="M2">
-        <v>11.61457478928828</v>
+        <v>14.50919121259162</v>
       </c>
       <c r="N2">
-        <v>12.04352540498004</v>
+        <v>18.00767644235368</v>
       </c>
       <c r="O2">
-        <v>15.29895640507006</v>
+        <v>22.01402876963423</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.1780866415239</v>
+        <v>14.22108560576619</v>
       </c>
       <c r="C3">
-        <v>11.61322875069554</v>
+        <v>11.29504084932588</v>
       </c>
       <c r="D3">
-        <v>6.680054964856148</v>
+        <v>5.861864404142227</v>
       </c>
       <c r="E3">
-        <v>7.719815734489324</v>
+        <v>12.86772652357289</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.49799174825456</v>
+        <v>29.54078178193375</v>
       </c>
       <c r="H3">
-        <v>8.946243993429933</v>
+        <v>14.40682281882608</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.054163717362745</v>
+        <v>9.851075818074385</v>
       </c>
       <c r="M3">
-        <v>11.0767281457224</v>
+        <v>14.42027480786888</v>
       </c>
       <c r="N3">
-        <v>12.21165959510483</v>
+        <v>18.06258650707208</v>
       </c>
       <c r="O3">
-        <v>15.04467873940313</v>
+        <v>22.05148831757106</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.32281318508924</v>
+        <v>13.93767330352622</v>
       </c>
       <c r="C4">
-        <v>11.36640746036251</v>
+        <v>11.20891628402296</v>
       </c>
       <c r="D4">
-        <v>6.358499903821491</v>
+        <v>5.789029171747885</v>
       </c>
       <c r="E4">
-        <v>7.786291789788686</v>
+        <v>12.89533452646961</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.93669806715875</v>
+        <v>29.51095134224014</v>
       </c>
       <c r="H4">
-        <v>8.930084441237286</v>
+        <v>14.43263052208286</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.004346039351646</v>
+        <v>9.856745747018362</v>
       </c>
       <c r="M4">
-        <v>10.73686127036704</v>
+        <v>14.36759507161267</v>
       </c>
       <c r="N4">
-        <v>12.31816536712239</v>
+        <v>18.09811144772094</v>
       </c>
       <c r="O4">
-        <v>14.90132540785572</v>
+        <v>22.08002761592908</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.9621342407223</v>
+        <v>13.82101887707556</v>
       </c>
       <c r="C5">
-        <v>11.26413787201343</v>
+        <v>11.17346956421467</v>
       </c>
       <c r="D5">
-        <v>6.224830007733384</v>
+        <v>5.759527515234026</v>
       </c>
       <c r="E5">
-        <v>7.814055020404795</v>
+        <v>12.90695434162235</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.71123942748805</v>
+        <v>29.50146333901356</v>
       </c>
       <c r="H5">
-        <v>8.925171574170914</v>
+        <v>14.44382601361195</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.984609127606377</v>
+        <v>9.859393262660111</v>
       </c>
       <c r="M5">
-        <v>10.59612392359001</v>
+        <v>14.34662635826368</v>
       </c>
       <c r="N5">
-        <v>12.36239309009754</v>
+        <v>18.11304434228042</v>
       </c>
       <c r="O5">
-        <v>14.84609498501666</v>
+        <v>22.09304717656263</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.9015080143856</v>
+        <v>13.8015838379403</v>
       </c>
       <c r="C6">
-        <v>11.24705719410568</v>
+        <v>11.16756317497316</v>
       </c>
       <c r="D6">
-        <v>6.205485921822596</v>
+        <v>5.754640975583697</v>
       </c>
       <c r="E6">
-        <v>7.818705737258516</v>
+        <v>12.9089061341962</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.67400936994504</v>
+        <v>29.50004915237538</v>
       </c>
       <c r="H6">
-        <v>8.924455223419249</v>
+        <v>14.44572597748668</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.981366193097321</v>
+        <v>9.859853246894284</v>
       </c>
       <c r="M6">
-        <v>10.57262522999953</v>
+        <v>14.34317512534985</v>
       </c>
       <c r="N6">
-        <v>12.36978705166287</v>
+        <v>18.11555152263414</v>
       </c>
       <c r="O6">
-        <v>14.83711555949735</v>
+        <v>22.09529288633522</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.31799822295819</v>
+        <v>13.9361045178446</v>
       </c>
       <c r="C7">
-        <v>11.36503491465987</v>
+        <v>11.20843962528107</v>
       </c>
       <c r="D7">
-        <v>6.356691777249432</v>
+        <v>5.788630514738828</v>
       </c>
       <c r="E7">
-        <v>7.786663488316968</v>
+        <v>12.89548973884722</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.93364377188043</v>
+        <v>29.51081257370973</v>
       </c>
       <c r="H7">
-        <v>8.930011484466648</v>
+        <v>14.43277876183638</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.004077562807421</v>
+        <v>9.856780087306969</v>
       </c>
       <c r="M7">
-        <v>10.73497204171198</v>
+        <v>14.36731023892992</v>
       </c>
       <c r="N7">
-        <v>12.31875848935636</v>
+        <v>18.09831098943081</v>
       </c>
       <c r="O7">
-        <v>14.90056768753373</v>
+        <v>22.08019758066513</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.04941731360037</v>
+        <v>14.51903296222411</v>
       </c>
       <c r="C8">
-        <v>11.87056211276964</v>
+        <v>11.38568289240316</v>
       </c>
       <c r="D8">
-        <v>7.008437341396114</v>
+        <v>5.94006890432822</v>
       </c>
       <c r="E8">
-        <v>7.651186615022931</v>
+        <v>12.83952631004153</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.1072284117034</v>
+        <v>29.58171497475185</v>
       </c>
       <c r="H8">
-        <v>8.969352801925766</v>
+        <v>14.38160587414105</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.109222718448323</v>
+        <v>9.846175876564942</v>
       </c>
       <c r="M8">
-        <v>11.43122409761103</v>
+        <v>14.47814577975239</v>
       </c>
       <c r="N8">
-        <v>12.10082106414673</v>
+        <v>18.02623442243511</v>
       </c>
       <c r="O8">
-        <v>15.20861860721932</v>
+        <v>22.02579338723729</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.06687345157706</v>
+        <v>15.61264296793129</v>
       </c>
       <c r="C9">
-        <v>12.80179172521529</v>
+        <v>11.72052684360428</v>
       </c>
       <c r="D9">
-        <v>8.152064911034639</v>
+        <v>6.239244663560414</v>
       </c>
       <c r="E9">
-        <v>7.406916094944438</v>
+        <v>12.7413719007631</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.48856007214082</v>
+        <v>29.80424345943512</v>
       </c>
       <c r="H9">
-        <v>9.10317828840858</v>
+        <v>14.30273633015</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.332370808050525</v>
+        <v>9.835972805880569</v>
       </c>
       <c r="M9">
-        <v>12.83145600559803</v>
+        <v>14.70990964722857</v>
       </c>
       <c r="N9">
-        <v>11.69927614612599</v>
+        <v>17.89920482777577</v>
       </c>
       <c r="O9">
-        <v>15.91465965129379</v>
+        <v>21.96318235734012</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.05803536529707</v>
+        <v>16.37726031984714</v>
       </c>
       <c r="C10">
-        <v>13.44500220608447</v>
+        <v>11.95752255373536</v>
       </c>
       <c r="D10">
-        <v>8.912471177444329</v>
+        <v>6.457805692574587</v>
       </c>
       <c r="E10">
-        <v>7.240666416213632</v>
+        <v>12.67626996820575</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.27089798619625</v>
+        <v>30.01775822795217</v>
       </c>
       <c r="H10">
-        <v>9.238974774442914</v>
+        <v>14.25793515108391</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.505946294912003</v>
+        <v>9.834897695134684</v>
       </c>
       <c r="M10">
-        <v>13.93204869273184</v>
+        <v>14.8878892333488</v>
       </c>
       <c r="N10">
-        <v>11.41989302841512</v>
+        <v>17.81453327084088</v>
       </c>
       <c r="O10">
-        <v>16.49578010619861</v>
+        <v>21.94419453733717</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.91586471555048</v>
+        <v>16.71510432346942</v>
       </c>
       <c r="C11">
-        <v>13.72800090015992</v>
+        <v>12.06312663289039</v>
       </c>
       <c r="D11">
-        <v>9.241550689669184</v>
+        <v>6.556449041925844</v>
       </c>
       <c r="E11">
-        <v>7.167959176086034</v>
+        <v>12.64816477549654</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>30.08610204532411</v>
+        <v>30.12549509962158</v>
       </c>
       <c r="H11">
-        <v>9.309468559970954</v>
+        <v>14.24041727410412</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.5868471600924</v>
+        <v>9.835793776732956</v>
       </c>
       <c r="M11">
-        <v>14.40746945033272</v>
+        <v>14.97028809317839</v>
       </c>
       <c r="N11">
-        <v>11.29618776477473</v>
+        <v>17.77787954800958</v>
       </c>
       <c r="O11">
-        <v>16.77361555981822</v>
+        <v>21.94144138869479</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.23389060285569</v>
+        <v>16.84148860295462</v>
       </c>
       <c r="C12">
-        <v>13.83373619875251</v>
+        <v>12.10277837539275</v>
       </c>
       <c r="D12">
-        <v>9.363784634949988</v>
+        <v>6.593650158408855</v>
       </c>
       <c r="E12">
-        <v>7.140853047246135</v>
+        <v>12.63773837812628</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30.39525187040607</v>
+        <v>30.16779076111917</v>
       </c>
       <c r="H12">
-        <v>9.337460712641969</v>
+        <v>14.23419594505606</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.617748509737442</v>
+        <v>9.836331363020662</v>
       </c>
       <c r="M12">
-        <v>14.58390516013973</v>
+        <v>15.00167586864772</v>
       </c>
       <c r="N12">
-        <v>11.24983339846605</v>
+        <v>17.76426671678702</v>
       </c>
       <c r="O12">
-        <v>16.88075038020542</v>
+        <v>21.94124559935923</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.1656998369525</v>
+        <v>16.81434010823417</v>
       </c>
       <c r="C13">
-        <v>13.8110285169915</v>
+        <v>12.09425403151175</v>
       </c>
       <c r="D13">
-        <v>9.337564635714841</v>
+        <v>6.585645659025989</v>
       </c>
       <c r="E13">
-        <v>7.1466717492852</v>
+        <v>12.63997427476101</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.32865343645694</v>
+        <v>30.15861547665115</v>
       </c>
       <c r="H13">
-        <v>9.331373709162719</v>
+        <v>14.23551747170785</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.611081723917639</v>
+        <v>9.836206782113148</v>
       </c>
       <c r="M13">
-        <v>14.54606590800245</v>
+        <v>14.99490805730438</v>
       </c>
       <c r="N13">
-        <v>11.25979477450159</v>
+        <v>17.76718661619162</v>
       </c>
       <c r="O13">
-        <v>16.85759161081085</v>
+        <v>21.94125010303044</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.94216501465351</v>
+        <v>16.72553370734856</v>
       </c>
       <c r="C14">
-        <v>13.73672872337758</v>
+        <v>12.06639570153264</v>
       </c>
       <c r="D14">
-        <v>9.251654444715864</v>
+        <v>6.559512890802467</v>
       </c>
       <c r="E14">
-        <v>7.16572054829059</v>
+        <v>12.64730265596119</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30.11152788962487</v>
+        <v>30.12894493395804</v>
       </c>
       <c r="H14">
-        <v>9.311745239402244</v>
+        <v>14.23989717459076</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.589384175219674</v>
+        <v>9.835834036439564</v>
       </c>
       <c r="M14">
-        <v>14.42205677673577</v>
+        <v>14.97286679689746</v>
       </c>
       <c r="N14">
-        <v>11.29236431648468</v>
+        <v>17.77675426327224</v>
       </c>
       <c r="O14">
-        <v>16.7823911165757</v>
+        <v>21.94140830931102</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.8043583593817</v>
+        <v>16.67093219850079</v>
       </c>
       <c r="C15">
-        <v>13.69103037788547</v>
+        <v>12.04928701371193</v>
       </c>
       <c r="D15">
-        <v>9.198723045289569</v>
+        <v>6.543484725827729</v>
       </c>
       <c r="E15">
-        <v>7.177444249949347</v>
+        <v>12.65181966569976</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.97858599350824</v>
+        <v>30.11096509388882</v>
       </c>
       <c r="H15">
-        <v>9.299892500031918</v>
+        <v>14.24263358342507</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.576128057617257</v>
+        <v>9.835631509415411</v>
       </c>
       <c r="M15">
-        <v>14.34563041037067</v>
+        <v>14.95938936134134</v>
       </c>
       <c r="N15">
-        <v>11.3123780512104</v>
+        <v>17.78264948708713</v>
       </c>
       <c r="O15">
-        <v>16.73657885297584</v>
+        <v>21.94161549639442</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.00101599568531</v>
+        <v>16.35497046779427</v>
       </c>
       <c r="C16">
-        <v>13.42630994964465</v>
+        <v>11.95057487177864</v>
       </c>
       <c r="D16">
-        <v>8.890629652682239</v>
+        <v>6.451339872320723</v>
       </c>
       <c r="E16">
-        <v>7.24547730626367</v>
+        <v>12.67813703304926</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.21769456315315</v>
+        <v>30.01092856230366</v>
       </c>
       <c r="H16">
-        <v>9.234547089595338</v>
+        <v>14.25913764626751</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.500697146842721</v>
+        <v>9.834866929806109</v>
       </c>
       <c r="M16">
-        <v>13.90047368366727</v>
+        <v>14.88253134094307</v>
       </c>
       <c r="N16">
-        <v>11.42804584117021</v>
+        <v>17.81696610699716</v>
       </c>
       <c r="O16">
-        <v>16.47789300205399</v>
+        <v>21.94449293710722</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.49596464978245</v>
+        <v>16.15849578267441</v>
       </c>
       <c r="C17">
-        <v>13.26141553188375</v>
+        <v>11.88943790554083</v>
       </c>
       <c r="D17">
-        <v>8.697340421355712</v>
+        <v>6.394582280813296</v>
       </c>
       <c r="E17">
-        <v>7.28796568389076</v>
+        <v>12.69466812673588</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.75189819951719</v>
+        <v>29.9522578830456</v>
       </c>
       <c r="H17">
-        <v>9.196724871193251</v>
+        <v>14.26999601008949</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.454910225200498</v>
+        <v>9.834752024487464</v>
       </c>
       <c r="M17">
-        <v>13.62094183511091</v>
+        <v>14.83573395681524</v>
       </c>
       <c r="N17">
-        <v>11.49987350497627</v>
+        <v>17.83849497603594</v>
       </c>
       <c r="O17">
-        <v>16.32264081955781</v>
+        <v>21.94776592424807</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.20095323071463</v>
+        <v>16.04455499099433</v>
       </c>
       <c r="C18">
-        <v>13.16567134159499</v>
+        <v>11.85406706398924</v>
       </c>
       <c r="D18">
-        <v>8.584578718228162</v>
+        <v>6.361865581926416</v>
       </c>
       <c r="E18">
-        <v>7.312678309704553</v>
+        <v>12.70431854484717</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>28.48440812381424</v>
+        <v>29.91951237387864</v>
       </c>
       <c r="H18">
-        <v>9.175788745911092</v>
+        <v>14.27651084015995</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.428758203367909</v>
+        <v>9.834816371679073</v>
       </c>
       <c r="M18">
-        <v>13.45778406304569</v>
+        <v>14.80895370364673</v>
       </c>
       <c r="N18">
-        <v>11.54150544712875</v>
+        <v>17.85105329194555</v>
       </c>
       <c r="O18">
-        <v>16.23461373901219</v>
+        <v>21.95020234060109</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.10028881857479</v>
+        <v>16.00581990657437</v>
       </c>
       <c r="C19">
-        <v>13.1331008571164</v>
+        <v>11.84205629278104</v>
       </c>
       <c r="D19">
-        <v>8.546125829086471</v>
+        <v>6.350777310929212</v>
       </c>
       <c r="E19">
-        <v>7.321092535173928</v>
+        <v>12.7076104502108</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.39391960330583</v>
+        <v>29.90859789350556</v>
       </c>
       <c r="H19">
-        <v>9.168839292892585</v>
+        <v>14.27876289433032</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.419935487306184</v>
+        <v>9.83486058816772</v>
       </c>
       <c r="M19">
-        <v>13.40213216774416</v>
+        <v>14.79991043377799</v>
       </c>
       <c r="N19">
-        <v>11.5556559586785</v>
+        <v>17.85533548772581</v>
       </c>
       <c r="O19">
-        <v>16.20502779117061</v>
+        <v>21.95112237118858</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.55019537257616</v>
+        <v>16.1795083540613</v>
       </c>
       <c r="C20">
-        <v>13.27906248930462</v>
+        <v>11.8959675635072</v>
       </c>
       <c r="D20">
-        <v>8.718080343426188</v>
+        <v>6.400631897383476</v>
       </c>
       <c r="E20">
-        <v>7.283414277134785</v>
+        <v>12.69289365466422</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.80144062930876</v>
+        <v>29.95840013640345</v>
       </c>
       <c r="H20">
-        <v>9.200666104727935</v>
+        <v>14.26881223288442</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.459765436476491</v>
+        <v>9.834750762982383</v>
       </c>
       <c r="M20">
-        <v>13.65094440236022</v>
+        <v>14.84070165810722</v>
       </c>
       <c r="N20">
-        <v>11.49219434059701</v>
+        <v>17.8361850360493</v>
       </c>
       <c r="O20">
-        <v>16.33903635145851</v>
+        <v>21.9473601784312</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.00800692052771</v>
+        <v>16.7516612135557</v>
       </c>
       <c r="C21">
-        <v>13.75859154128041</v>
+        <v>12.07458771098948</v>
       </c>
       <c r="D21">
-        <v>9.276952658040338</v>
+        <v>6.567193182723799</v>
       </c>
       <c r="E21">
-        <v>7.160113819967323</v>
+        <v>12.64514426452099</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.17529199357045</v>
+        <v>30.13761946865456</v>
       </c>
       <c r="H21">
-        <v>9.317475038131418</v>
+        <v>14.23859955453563</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.595750154326423</v>
+        <v>9.835938147932268</v>
       </c>
       <c r="M21">
-        <v>14.45857856018292</v>
+        <v>14.97933599587186</v>
       </c>
       <c r="N21">
-        <v>11.28278451747263</v>
+        <v>17.77393677020219</v>
       </c>
       <c r="O21">
-        <v>16.80442720624603</v>
+        <v>21.94133885760811</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.921084879796</v>
+        <v>17.1165176128625</v>
       </c>
       <c r="C22">
-        <v>14.06363826762501</v>
+        <v>12.18934566285633</v>
       </c>
       <c r="D22">
-        <v>9.628347226443539</v>
+        <v>6.675141714644129</v>
       </c>
       <c r="E22">
-        <v>7.082019943539172</v>
+        <v>12.61519847175539</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31.07574744823075</v>
+        <v>30.26346655211902</v>
       </c>
       <c r="H22">
-        <v>9.401399359684437</v>
+        <v>14.22125734900866</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.686168672936528</v>
+        <v>9.837869296055516</v>
       </c>
       <c r="M22">
-        <v>14.96547380044012</v>
+        <v>15.07101054039738</v>
       </c>
       <c r="N22">
-        <v>11.1487827092677</v>
+        <v>17.7348106253118</v>
       </c>
       <c r="O22">
-        <v>17.11979856159869</v>
+        <v>21.9423390290969</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.43736175897012</v>
+        <v>16.92265217380218</v>
       </c>
       <c r="C23">
-        <v>13.90160762521275</v>
+        <v>12.12828513536242</v>
       </c>
       <c r="D23">
-        <v>9.442056205664215</v>
+        <v>6.617623548762756</v>
       </c>
       <c r="E23">
-        <v>7.123469766357138</v>
+        <v>12.63106593656508</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>30.59497342390174</v>
+        <v>30.19551184174003</v>
       </c>
       <c r="H23">
-        <v>9.355899533316087</v>
+        <v>14.23029307862594</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.637773399971866</v>
+        <v>9.836733238121894</v>
       </c>
       <c r="M23">
-        <v>14.69683792846773</v>
+        <v>15.02199137379385</v>
       </c>
       <c r="N23">
-        <v>11.22003886098747</v>
+        <v>17.75555083046126</v>
       </c>
       <c r="O23">
-        <v>16.95045770390537</v>
+        <v>21.94135358943392</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.52569215471699</v>
+        <v>16.17001162939533</v>
       </c>
       <c r="C24">
-        <v>13.27108723695088</v>
+        <v>11.89301619624936</v>
       </c>
       <c r="D24">
-        <v>8.708708926963855</v>
+        <v>6.397897130513326</v>
       </c>
       <c r="E24">
-        <v>7.285471079365852</v>
+        <v>12.69369543718969</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.77904154023438</v>
+        <v>29.95562015325694</v>
       </c>
       <c r="H24">
-        <v>9.198881758492544</v>
+        <v>14.26934657067248</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.457569860303446</v>
+        <v>9.834750927034852</v>
       </c>
       <c r="M24">
-        <v>13.6373878791613</v>
+        <v>14.83845537190123</v>
       </c>
       <c r="N24">
-        <v>11.49566504052247</v>
+        <v>17.83722879577673</v>
       </c>
       <c r="O24">
-        <v>16.33162010089431</v>
+        <v>21.94754188819087</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.29055572285219</v>
+        <v>15.32304180915387</v>
       </c>
       <c r="C25">
-        <v>12.55678802881843</v>
+        <v>11.63143712006342</v>
       </c>
       <c r="D25">
-        <v>7.856858807575643</v>
+        <v>6.158346629486788</v>
       </c>
       <c r="E25">
-        <v>7.470692188635825</v>
+        <v>12.76669005809817</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.8375433195263</v>
+        <v>29.73518196445863</v>
       </c>
       <c r="H25">
-        <v>9.060596696538418</v>
+        <v>14.32176763836956</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.270259604114411</v>
+        <v>9.837602495984315</v>
       </c>
       <c r="M25">
-        <v>12.4035638611529</v>
+        <v>14.64577803158419</v>
       </c>
       <c r="N25">
-        <v>11.80515517099863</v>
+        <v>17.93204458203894</v>
       </c>
       <c r="O25">
-        <v>15.71268742225637</v>
+        <v>21.97538480287443</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_243/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.67398100309142</v>
+        <v>19.49280733934278</v>
       </c>
       <c r="C2">
-        <v>11.43289330989208</v>
+        <v>12.0036502026173</v>
       </c>
       <c r="D2">
-        <v>5.981349752233965</v>
+        <v>7.175851827427826</v>
       </c>
       <c r="E2">
-        <v>12.82514935640294</v>
+        <v>7.615922705593023</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>29.606600187338</v>
+        <v>25.43127291187768</v>
       </c>
       <c r="H2">
-        <v>14.36919225573753</v>
+        <v>8.983734166589656</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.844020614152583</v>
+        <v>6.138884697552612</v>
       </c>
       <c r="M2">
-        <v>14.50919121259162</v>
+        <v>11.61457478928828</v>
       </c>
       <c r="N2">
-        <v>18.00767644235368</v>
+        <v>12.04352540498</v>
       </c>
       <c r="O2">
-        <v>22.01402876963423</v>
+        <v>15.29895640507004</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.22108560576619</v>
+        <v>18.17808664152393</v>
       </c>
       <c r="C3">
-        <v>11.29504084932588</v>
+        <v>11.61322875069545</v>
       </c>
       <c r="D3">
-        <v>5.861864404142227</v>
+        <v>6.680054964856089</v>
       </c>
       <c r="E3">
-        <v>12.86772652357289</v>
+        <v>7.719815734489194</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>29.54078178193375</v>
+        <v>24.49799174825455</v>
       </c>
       <c r="H3">
-        <v>14.40682281882608</v>
+        <v>8.946243993429928</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.851075818074385</v>
+        <v>6.054163717362703</v>
       </c>
       <c r="M3">
-        <v>14.42027480786888</v>
+        <v>11.07672814572237</v>
       </c>
       <c r="N3">
-        <v>18.06258650707208</v>
+        <v>12.21165959510483</v>
       </c>
       <c r="O3">
-        <v>22.05148831757106</v>
+        <v>15.04467873940311</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.93767330352622</v>
+        <v>17.3228131850893</v>
       </c>
       <c r="C4">
-        <v>11.20891628402296</v>
+        <v>11.36640746036238</v>
       </c>
       <c r="D4">
-        <v>5.789029171747885</v>
+        <v>6.358499903821434</v>
       </c>
       <c r="E4">
-        <v>12.89533452646961</v>
+        <v>7.786291789788686</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>29.51095134224014</v>
+        <v>23.93669806715881</v>
       </c>
       <c r="H4">
-        <v>14.43263052208286</v>
+        <v>8.930084441237236</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.856745747018362</v>
+        <v>6.004346039351698</v>
       </c>
       <c r="M4">
-        <v>14.36759507161267</v>
+        <v>10.73686127036703</v>
       </c>
       <c r="N4">
-        <v>18.09811144772094</v>
+        <v>12.31816536712238</v>
       </c>
       <c r="O4">
-        <v>22.08002761592908</v>
+        <v>14.90132540785569</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.82101887707556</v>
+        <v>16.96213424072234</v>
       </c>
       <c r="C5">
-        <v>11.17346956421467</v>
+        <v>11.26413787201332</v>
       </c>
       <c r="D5">
-        <v>5.759527515234026</v>
+        <v>6.224830007733368</v>
       </c>
       <c r="E5">
-        <v>12.90695434162235</v>
+        <v>7.814055020404731</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>29.50146333901356</v>
+        <v>23.71123942748791</v>
       </c>
       <c r="H5">
-        <v>14.44382601361195</v>
+        <v>8.925171574170903</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.859393262660111</v>
+        <v>5.984609127606306</v>
       </c>
       <c r="M5">
-        <v>14.34662635826368</v>
+        <v>10.59612392358998</v>
       </c>
       <c r="N5">
-        <v>18.11304434228042</v>
+        <v>12.36239309009754</v>
       </c>
       <c r="O5">
-        <v>22.09304717656263</v>
+        <v>14.84609498501661</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.8015838379403</v>
+        <v>16.90150801438563</v>
       </c>
       <c r="C6">
-        <v>11.16756317497316</v>
+        <v>11.24705719410557</v>
       </c>
       <c r="D6">
-        <v>5.754640975583697</v>
+        <v>6.205485921822587</v>
       </c>
       <c r="E6">
-        <v>12.9089061341962</v>
+        <v>7.81870573725858</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>29.50004915237538</v>
+        <v>23.67400936994481</v>
       </c>
       <c r="H6">
-        <v>14.44572597748668</v>
+        <v>8.924455223419253</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.859853246894284</v>
+        <v>5.981366193097343</v>
       </c>
       <c r="M6">
-        <v>14.34317512534985</v>
+        <v>10.57262522999953</v>
       </c>
       <c r="N6">
-        <v>18.11555152263414</v>
+        <v>12.36978705166284</v>
       </c>
       <c r="O6">
-        <v>22.09529288633522</v>
+        <v>14.83711555949728</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.9361045178446</v>
+        <v>17.31799822295816</v>
       </c>
       <c r="C7">
-        <v>11.20843962528107</v>
+        <v>11.36503491465987</v>
       </c>
       <c r="D7">
-        <v>5.788630514738828</v>
+        <v>6.356691777249457</v>
       </c>
       <c r="E7">
-        <v>12.89548973884722</v>
+        <v>7.786663488317032</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>29.51081257370973</v>
+        <v>23.93364377188047</v>
       </c>
       <c r="H7">
-        <v>14.43277876183638</v>
+        <v>8.93001148446664</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.856780087306969</v>
+        <v>6.004077562807471</v>
       </c>
       <c r="M7">
-        <v>14.36731023892992</v>
+        <v>10.73497204171201</v>
       </c>
       <c r="N7">
-        <v>18.09831098943081</v>
+        <v>12.31875848935639</v>
       </c>
       <c r="O7">
-        <v>22.08019758066513</v>
+        <v>14.90056768753379</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.51903296222411</v>
+        <v>19.04941731360047</v>
       </c>
       <c r="C8">
-        <v>11.38568289240316</v>
+        <v>11.87056211276964</v>
       </c>
       <c r="D8">
-        <v>5.94006890432822</v>
+        <v>7.008437341396098</v>
       </c>
       <c r="E8">
-        <v>12.83952631004153</v>
+        <v>7.651186615022806</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>29.58171497475185</v>
+        <v>25.10722841170324</v>
       </c>
       <c r="H8">
-        <v>14.38160587414105</v>
+        <v>8.969352801925726</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.846175876564942</v>
+        <v>6.109222718448251</v>
       </c>
       <c r="M8">
-        <v>14.47814577975239</v>
+        <v>11.43122409761099</v>
       </c>
       <c r="N8">
-        <v>18.02623442243511</v>
+        <v>12.10082106414666</v>
       </c>
       <c r="O8">
-        <v>22.02579338723729</v>
+        <v>15.20861860721919</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.61264296793129</v>
+        <v>22.06687345157702</v>
       </c>
       <c r="C9">
-        <v>11.72052684360428</v>
+        <v>12.80179172521557</v>
       </c>
       <c r="D9">
-        <v>6.239244663560414</v>
+        <v>8.152064911034582</v>
       </c>
       <c r="E9">
-        <v>12.7413719007631</v>
+        <v>7.406916094944376</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29.80424345943512</v>
+        <v>27.48856007214078</v>
       </c>
       <c r="H9">
-        <v>14.30273633015</v>
+        <v>9.103178288408671</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.835972805880569</v>
+        <v>6.33237080805044</v>
       </c>
       <c r="M9">
-        <v>14.70990964722857</v>
+        <v>12.83145600559805</v>
       </c>
       <c r="N9">
-        <v>17.89920482777577</v>
+        <v>11.69927614612599</v>
       </c>
       <c r="O9">
-        <v>21.96318235734012</v>
+        <v>15.91465965129379</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.37726031984714</v>
+        <v>24.05803536529704</v>
       </c>
       <c r="C10">
-        <v>11.95752255373536</v>
+        <v>13.44500220608447</v>
       </c>
       <c r="D10">
-        <v>6.457805692574587</v>
+        <v>8.912471177444337</v>
       </c>
       <c r="E10">
-        <v>12.67626996820575</v>
+        <v>7.240666416213698</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30.01775822795217</v>
+        <v>29.27089798619619</v>
       </c>
       <c r="H10">
-        <v>14.25793515108391</v>
+        <v>9.238974774442909</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.834897695134684</v>
+        <v>6.505946294911996</v>
       </c>
       <c r="M10">
-        <v>14.8878892333488</v>
+        <v>13.93204869273182</v>
       </c>
       <c r="N10">
-        <v>17.81453327084088</v>
+        <v>11.41989302841509</v>
       </c>
       <c r="O10">
-        <v>21.94419453733717</v>
+        <v>16.49578010619858</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.71510432346942</v>
+        <v>24.91586471555046</v>
       </c>
       <c r="C11">
-        <v>12.06312663289039</v>
+        <v>13.72800090016002</v>
       </c>
       <c r="D11">
-        <v>6.556449041925844</v>
+        <v>9.241550689669245</v>
       </c>
       <c r="E11">
-        <v>12.64816477549654</v>
+        <v>7.167959176086164</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>30.12549509962158</v>
+        <v>30.08610204532406</v>
       </c>
       <c r="H11">
-        <v>14.24041727410412</v>
+        <v>9.309468559970945</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.835793776732956</v>
+        <v>6.586847160092403</v>
       </c>
       <c r="M11">
-        <v>14.97028809317839</v>
+        <v>14.40746945033272</v>
       </c>
       <c r="N11">
-        <v>17.77787954800958</v>
+        <v>11.29618776477473</v>
       </c>
       <c r="O11">
-        <v>21.94144138869479</v>
+        <v>16.77361555981819</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.84148860295462</v>
+        <v>25.23389060285572</v>
       </c>
       <c r="C12">
-        <v>12.10277837539275</v>
+        <v>13.83373619875224</v>
       </c>
       <c r="D12">
-        <v>6.593650158408855</v>
+        <v>9.363784634950013</v>
       </c>
       <c r="E12">
-        <v>12.63773837812628</v>
+        <v>7.140853047246004</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30.16779076111917</v>
+        <v>30.39525187040611</v>
       </c>
       <c r="H12">
-        <v>14.23419594505606</v>
+        <v>9.337460712641969</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.836331363020662</v>
+        <v>6.617748509737442</v>
       </c>
       <c r="M12">
-        <v>15.00167586864772</v>
+        <v>14.58390516013974</v>
       </c>
       <c r="N12">
-        <v>17.76426671678702</v>
+        <v>11.24983339846595</v>
       </c>
       <c r="O12">
-        <v>21.94124559935923</v>
+        <v>16.88075038020542</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.81434010823417</v>
+        <v>25.16569983695251</v>
       </c>
       <c r="C13">
-        <v>12.09425403151175</v>
+        <v>13.81102851699151</v>
       </c>
       <c r="D13">
-        <v>6.585645659025989</v>
+        <v>9.337564635714832</v>
       </c>
       <c r="E13">
-        <v>12.63997427476101</v>
+        <v>7.146671749285197</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.15861547665115</v>
+        <v>30.32865343645696</v>
       </c>
       <c r="H13">
-        <v>14.23551747170785</v>
+        <v>9.331373709162719</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.836206782113148</v>
+        <v>6.611081723917672</v>
       </c>
       <c r="M13">
-        <v>14.99490805730438</v>
+        <v>14.54606590800246</v>
       </c>
       <c r="N13">
-        <v>17.76718661619162</v>
+        <v>11.25979477450156</v>
       </c>
       <c r="O13">
-        <v>21.94125010303044</v>
+        <v>16.85759161081085</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.72553370734856</v>
+        <v>24.94216501465349</v>
       </c>
       <c r="C14">
-        <v>12.06639570153264</v>
+        <v>13.7367287233776</v>
       </c>
       <c r="D14">
-        <v>6.559512890802467</v>
+        <v>9.251654444715879</v>
       </c>
       <c r="E14">
-        <v>12.64730265596119</v>
+        <v>7.165720548290526</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30.12894493395804</v>
+        <v>30.1115278896249</v>
       </c>
       <c r="H14">
-        <v>14.23989717459076</v>
+        <v>9.31174523940224</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.835834036439564</v>
+        <v>6.589384175219634</v>
       </c>
       <c r="M14">
-        <v>14.97286679689746</v>
+        <v>14.42205677673578</v>
       </c>
       <c r="N14">
-        <v>17.77675426327224</v>
+        <v>11.29236431648472</v>
       </c>
       <c r="O14">
-        <v>21.94140830931102</v>
+        <v>16.78239111657572</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.67093219850079</v>
+        <v>24.80435835938166</v>
       </c>
       <c r="C15">
-        <v>12.04928701371193</v>
+        <v>13.69103037788546</v>
       </c>
       <c r="D15">
-        <v>6.543484725827729</v>
+        <v>9.198723045289553</v>
       </c>
       <c r="E15">
-        <v>12.65181966569976</v>
+        <v>7.177444249949281</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>30.11096509388882</v>
+        <v>29.97858599350828</v>
       </c>
       <c r="H15">
-        <v>14.24263358342507</v>
+        <v>9.299892500031994</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.835631509415411</v>
+        <v>6.576128057617268</v>
       </c>
       <c r="M15">
-        <v>14.95938936134134</v>
+        <v>14.34563041037065</v>
       </c>
       <c r="N15">
-        <v>17.78264948708713</v>
+        <v>11.3123780512105</v>
       </c>
       <c r="O15">
-        <v>21.94161549639442</v>
+        <v>16.73657885297593</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.35497046779427</v>
+        <v>24.00101599568526</v>
       </c>
       <c r="C16">
-        <v>11.95057487177864</v>
+        <v>13.42630994964494</v>
       </c>
       <c r="D16">
-        <v>6.451339872320723</v>
+        <v>8.890629652682208</v>
       </c>
       <c r="E16">
-        <v>12.67813703304926</v>
+        <v>7.245477306263859</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>30.01092856230366</v>
+        <v>29.21769456315314</v>
       </c>
       <c r="H16">
-        <v>14.25913764626751</v>
+        <v>9.234547089595269</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.834866929806109</v>
+        <v>6.500697146842711</v>
       </c>
       <c r="M16">
-        <v>14.88253134094307</v>
+        <v>13.90047368366724</v>
       </c>
       <c r="N16">
-        <v>17.81696610699716</v>
+        <v>11.42804584117028</v>
       </c>
       <c r="O16">
-        <v>21.94449293710722</v>
+        <v>16.47789300205398</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.15849578267441</v>
+        <v>23.49596464978247</v>
       </c>
       <c r="C17">
-        <v>11.88943790554083</v>
+        <v>13.26141553188414</v>
       </c>
       <c r="D17">
-        <v>6.394582280813296</v>
+        <v>8.697340421355742</v>
       </c>
       <c r="E17">
-        <v>12.69466812673588</v>
+        <v>7.287965683890886</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>29.9522578830456</v>
+        <v>28.75189819951708</v>
       </c>
       <c r="H17">
-        <v>14.26999601008949</v>
+        <v>9.196724871193233</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.834752024487464</v>
+        <v>6.454910225200501</v>
       </c>
       <c r="M17">
-        <v>14.83573395681524</v>
+        <v>13.62094183511092</v>
       </c>
       <c r="N17">
-        <v>17.83849497603594</v>
+        <v>11.49987350497624</v>
       </c>
       <c r="O17">
-        <v>21.94776592424807</v>
+        <v>16.32264081955769</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.04455499099433</v>
+        <v>23.20095323071469</v>
       </c>
       <c r="C18">
-        <v>11.85406706398924</v>
+        <v>13.16567134159487</v>
       </c>
       <c r="D18">
-        <v>6.361865581926416</v>
+        <v>8.584578718228162</v>
       </c>
       <c r="E18">
-        <v>12.70431854484717</v>
+        <v>7.312678309704491</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29.91951237387864</v>
+        <v>28.48440812381427</v>
       </c>
       <c r="H18">
-        <v>14.27651084015995</v>
+        <v>9.175788745911147</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.834816371679073</v>
+        <v>6.428758203367908</v>
       </c>
       <c r="M18">
-        <v>14.80895370364673</v>
+        <v>13.45778406304571</v>
       </c>
       <c r="N18">
-        <v>17.85105329194555</v>
+        <v>11.54150544712878</v>
       </c>
       <c r="O18">
-        <v>21.95020234060109</v>
+        <v>16.23461373901225</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.00581990657437</v>
+        <v>23.10028881857479</v>
       </c>
       <c r="C19">
-        <v>11.84205629278104</v>
+        <v>13.1331008571164</v>
       </c>
       <c r="D19">
-        <v>6.350777310929212</v>
+        <v>8.54612582908649</v>
       </c>
       <c r="E19">
-        <v>12.7076104502108</v>
+        <v>7.321092535173988</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.90859789350556</v>
+        <v>28.39391960330583</v>
       </c>
       <c r="H19">
-        <v>14.27876289433032</v>
+        <v>9.168839292892629</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.83486058816772</v>
+        <v>6.419935487306219</v>
       </c>
       <c r="M19">
-        <v>14.79991043377799</v>
+        <v>13.40213216774414</v>
       </c>
       <c r="N19">
-        <v>17.85533548772581</v>
+        <v>11.5556559586785</v>
       </c>
       <c r="O19">
-        <v>21.95112237118858</v>
+        <v>16.20502779117064</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.1795083540613</v>
+        <v>23.55019537257616</v>
       </c>
       <c r="C20">
-        <v>11.8959675635072</v>
+        <v>13.27906248930442</v>
       </c>
       <c r="D20">
-        <v>6.400631897383476</v>
+        <v>8.718080343426225</v>
       </c>
       <c r="E20">
-        <v>12.69289365466422</v>
+        <v>7.283414277134788</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.95840013640345</v>
+        <v>28.80144062930883</v>
       </c>
       <c r="H20">
-        <v>14.26881223288442</v>
+        <v>9.200666104727935</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.834750762982383</v>
+        <v>6.459765436476552</v>
       </c>
       <c r="M20">
-        <v>14.84070165810722</v>
+        <v>13.6509444023602</v>
       </c>
       <c r="N20">
-        <v>17.8361850360493</v>
+        <v>11.49219434059701</v>
       </c>
       <c r="O20">
-        <v>21.9473601784312</v>
+        <v>16.33903635145856</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.7516612135557</v>
+        <v>25.00800692052769</v>
       </c>
       <c r="C21">
-        <v>12.07458771098948</v>
+        <v>13.75859154128033</v>
       </c>
       <c r="D21">
-        <v>6.567193182723799</v>
+        <v>9.276952658040255</v>
       </c>
       <c r="E21">
-        <v>12.64514426452099</v>
+        <v>7.160113819967321</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.13761946865456</v>
+        <v>30.17529199357046</v>
       </c>
       <c r="H21">
-        <v>14.23859955453563</v>
+        <v>9.31747503813143</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.835938147932268</v>
+        <v>6.595750154326424</v>
       </c>
       <c r="M21">
-        <v>14.97933599587186</v>
+        <v>14.45857856018289</v>
       </c>
       <c r="N21">
-        <v>17.77393677020219</v>
+        <v>11.28278451747274</v>
       </c>
       <c r="O21">
-        <v>21.94133885760811</v>
+        <v>16.80442720624607</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.1165176128625</v>
+        <v>25.92108487979604</v>
       </c>
       <c r="C22">
-        <v>12.18934566285633</v>
+        <v>14.06363826762519</v>
       </c>
       <c r="D22">
-        <v>6.675141714644129</v>
+        <v>9.628347226443562</v>
       </c>
       <c r="E22">
-        <v>12.61519847175539</v>
+        <v>7.082019943539112</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30.26346655211902</v>
+        <v>31.07574744823075</v>
       </c>
       <c r="H22">
-        <v>14.22125734900866</v>
+        <v>9.401399359684426</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.837869296055516</v>
+        <v>6.686168672936507</v>
       </c>
       <c r="M22">
-        <v>15.07101054039738</v>
+        <v>14.96547380044015</v>
       </c>
       <c r="N22">
-        <v>17.7348106253118</v>
+        <v>11.14878270926767</v>
       </c>
       <c r="O22">
-        <v>21.9423390290969</v>
+        <v>17.11979856159864</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.92265217380218</v>
+        <v>25.43736175897007</v>
       </c>
       <c r="C23">
-        <v>12.12828513536242</v>
+        <v>13.90160762521267</v>
       </c>
       <c r="D23">
-        <v>6.617623548762756</v>
+        <v>9.442056205664226</v>
       </c>
       <c r="E23">
-        <v>12.63106593656508</v>
+        <v>7.123469766357009</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>30.19551184174003</v>
+        <v>30.5949734239018</v>
       </c>
       <c r="H23">
-        <v>14.23029307862594</v>
+        <v>9.355899533316114</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.836733238121894</v>
+        <v>6.637773399971896</v>
       </c>
       <c r="M23">
-        <v>15.02199137379385</v>
+        <v>14.69683792846767</v>
       </c>
       <c r="N23">
-        <v>17.75555083046126</v>
+        <v>11.22003886098751</v>
       </c>
       <c r="O23">
-        <v>21.94135358943392</v>
+        <v>16.95045770390545</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.17001162939533</v>
+        <v>23.52569215471691</v>
       </c>
       <c r="C24">
-        <v>11.89301619624936</v>
+        <v>13.27108723695089</v>
       </c>
       <c r="D24">
-        <v>6.397897130513326</v>
+        <v>8.708708926963876</v>
       </c>
       <c r="E24">
-        <v>12.69369543718969</v>
+        <v>7.285471079365849</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.95562015325694</v>
+        <v>28.77904154023449</v>
       </c>
       <c r="H24">
-        <v>14.26934657067248</v>
+        <v>9.19888175849259</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.834750927034852</v>
+        <v>6.45756986030344</v>
       </c>
       <c r="M24">
-        <v>14.83845537190123</v>
+        <v>13.63738787916125</v>
       </c>
       <c r="N24">
-        <v>17.83722879577673</v>
+        <v>11.49566504052257</v>
       </c>
       <c r="O24">
-        <v>21.94754188819087</v>
+        <v>16.33162010089441</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.32304180915387</v>
+        <v>21.29055572285218</v>
       </c>
       <c r="C25">
-        <v>11.63143712006342</v>
+        <v>12.5567880288186</v>
       </c>
       <c r="D25">
-        <v>6.158346629486788</v>
+        <v>7.85685880757562</v>
       </c>
       <c r="E25">
-        <v>12.76669005809817</v>
+        <v>7.470692188635958</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>29.73518196445863</v>
+        <v>26.83754331952633</v>
       </c>
       <c r="H25">
-        <v>14.32176763836956</v>
+        <v>9.060596696538418</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.837602495984315</v>
+        <v>6.270259604114442</v>
       </c>
       <c r="M25">
-        <v>14.64577803158419</v>
+        <v>12.40356386115291</v>
       </c>
       <c r="N25">
-        <v>17.93204458203894</v>
+        <v>11.80515517099869</v>
       </c>
       <c r="O25">
-        <v>21.97538480287443</v>
+        <v>15.71268742225637</v>
       </c>
     </row>
   </sheetData>
